--- a/Borrow Amount.xlsx
+++ b/Borrow Amount.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="99">
   <si>
     <t>States</t>
   </si>
@@ -292,6 +292,30 @@
   </si>
   <si>
     <t>Code</t>
+  </si>
+  <si>
+    <t>More than 50</t>
+  </si>
+  <si>
+    <t>Buckets</t>
+  </si>
+  <si>
+    <t>30-40</t>
+  </si>
+  <si>
+    <t>20-30</t>
+  </si>
+  <si>
+    <t>10-20</t>
+  </si>
+  <si>
+    <t>40-50</t>
+  </si>
+  <si>
+    <t>0-10</t>
+  </si>
+  <si>
+    <t>Less than Zero</t>
   </si>
 </sst>
 </file>
@@ -359,16 +383,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,7 +687,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,760 +697,896 @@
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="F1" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>32.806671000000001</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>-86.791129999999995</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>282817</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="F2" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>61.370716000000002</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>-152.40441899999999</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>3614454</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="F3" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>33.729759000000001</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>-111.43122099999999</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>1181690</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="F4" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>34.969704</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>-92.373123000000007</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>4494733</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="F5" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>36.116202999999999</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>-119.68156399999999</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>43350770</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="F6" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>39.059811000000003</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>-105.311104</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>9744621</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="F7" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>41.597782000000002</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>-72.755370999999997</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>6500892</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="F8" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>39.318522999999999</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>-75.507141000000004</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>5706120</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="F9" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>27.766279000000001</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>-81.686783000000005</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>17095802</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="F10" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>33.040619</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>-83.643073999999999</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>7975932</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="F11" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>21.094318000000001</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>-157.49833699999999</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>800278</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="F12" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>44.240459000000001</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>-114.47882799999999</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>3519781</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="F13" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>40.349457000000001</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>-88.986136999999999</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>27487023</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="F14" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>39.849426000000001</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>-86.258278000000004</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>5875905</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="F15" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>38.526600000000002</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>-96.726485999999994</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>3514998</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="F16" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>37.668140000000001</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>-84.670067000000003</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>4483167</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="F17" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>44.693947000000001</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>-69.381927000000005</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>16949915</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="F18" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>39.063946000000001</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>-76.802100999999993</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>8632465</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="F19" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>42.230170999999999</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>-71.530106000000004</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>1474489</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="F20" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>43.326618000000003</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>-84.536095000000003</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>12056860</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="F21" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>45.694454</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>-93.900192000000004</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>8210089</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="F22" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>38.456085000000002</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>-92.288368000000006</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <v>5817393</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="F23" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>46.921925000000002</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>-110.454353</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>1338813</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="F24" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>35.630065999999999</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>-79.806419000000005</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <v>11682456</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="F25" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>47.528911999999998</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>-99.784012000000004</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="4">
         <v>49919</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="F26" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>41.125369999999997</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>-98.268082000000007</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <v>829205</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="F27" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>43.452491999999999</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>-71.563896</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <v>2874399</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="F28" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>40.298904</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>-74.521011000000001</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="4">
         <v>20624686</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="F29" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>34.840515000000003</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>-106.248482</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="4">
         <v>1131633</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="F30" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>38.313515000000002</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>-117.055374</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="4">
         <v>120746</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="F31" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>42.165725999999999</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <v>-74.948051000000007</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="4">
         <v>52737484</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="F32" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>40.388782999999997</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <v>-82.764915000000002</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="4">
         <v>12728416</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="F33" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>35.565342000000001</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="3">
         <v>-96.928916999999998</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="4">
         <v>2881786</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="F34" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>44.572020999999999</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="3">
         <v>-122.070938</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="4">
         <v>4128145</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="F35" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>40.590752000000002</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="3">
         <v>-77.209755000000001</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="4">
         <v>18846307</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="F36" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>33.856892000000002</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="3">
         <v>-80.945007000000004</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="4">
         <v>2411821</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="F37" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <v>31.054487000000002</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="3">
         <v>-97.563461000000004</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="4">
         <v>37001819</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="F38" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>40.150032000000003</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="3">
         <v>-111.86243399999999</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="4">
         <v>3486550</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="F39" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <v>37.769337</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="3">
         <v>-78.169967999999997</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="4">
         <v>16814004</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="F40" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <v>47.400902000000002</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="3">
         <v>-121.490494</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="4">
         <v>8780791</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="F41" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <v>38.491225999999997</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="3">
         <v>-80.954453000000001</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="4">
         <v>9110670</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="F42" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>44.268543000000001</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="3">
         <v>-89.616507999999996</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="4">
         <v>1226303</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+      <c r="F43" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <v>42.755966000000001</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="3">
         <v>-107.30249000000001</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="4">
         <v>1345866</v>
       </c>
+      <c r="F44" s="8" t="s">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:F45">
+    <sortCondition ref="B2:B45"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
